--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCB8D36F-EEF3-4AE5-9551-FEDCDA8CC16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AFF18B87-0E59-418D-AB35-7CD72FD4546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Product" sheetId="3" r:id="rId3"/>
-    <sheet name="DataProviderOrg" sheetId="4" r:id="rId4"/>
+    <sheet name="Leads" sheetId="5" r:id="rId3"/>
+    <sheet name="Product" sheetId="3" r:id="rId4"/>
+    <sheet name="DataProviderOrg" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:J11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>TC_ID</t>
   </si>
@@ -126,6 +127,27 @@
   </si>
   <si>
     <t>RealMe</t>
+  </si>
+  <si>
+    <t>CreateLeads</t>
+  </si>
+  <si>
+    <t>CreateLeadsWithLeadSource</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Kay Beauty</t>
   </si>
 </sst>
 </file>
@@ -167,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,15 +212,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B7557-1150-4C90-BF4A-2C91F83F8663}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,6 +670,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB308AAF-152C-4E95-9FBE-4FA304ABAD52}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -713,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAAEFBF-0003-4C1C-934E-6C3A3B4F37D9}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AFF18B87-0E59-418D-AB35-7CD72FD4546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A7F3C74-A2D0-41B4-9E72-05311352E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="Leads" sheetId="5" r:id="rId3"/>
     <sheet name="Product" sheetId="3" r:id="rId4"/>
     <sheet name="DataProviderOrg" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1:O12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB308AAF-152C-4E95-9FBE-4FA304ABAD52}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+    <sheetView zoomScale="122" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -893,4 +894,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE802EB2-0F5B-44E9-8EF2-58120728F3AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A7F3C74-A2D0-41B4-9E72-05311352E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sftware Testing class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765426FA-F26F-410C-9341-793FDAD00DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,10 +18,9 @@
     <sheet name="Leads" sheetId="5" r:id="rId3"/>
     <sheet name="Product" sheetId="3" r:id="rId4"/>
     <sheet name="DataProviderOrg" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="EditOpportunities" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>TC_ID</t>
   </si>
@@ -149,6 +153,57 @@
   </si>
   <si>
     <t>Kay Beauty</t>
+  </si>
+  <si>
+    <t>OPPNAME</t>
+  </si>
+  <si>
+    <t>Bill Gate</t>
+  </si>
+  <si>
+    <t>ORGNAME</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>SALESSTAGE</t>
+  </si>
+  <si>
+    <t>Needs Analysis</t>
+  </si>
+  <si>
+    <t>CAMPNAME</t>
+  </si>
+  <si>
+    <t>Mac Book Pro</t>
+  </si>
+  <si>
+    <t>ASSIGNTO</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>OPPNAMEFIELD</t>
+  </si>
+  <si>
+    <t>Opportunity Name</t>
+  </si>
+  <si>
+    <t>CSOURCE</t>
+  </si>
+  <si>
+    <t>Campaign Source</t>
+  </si>
+  <si>
+    <t>EditOpportunitiesWithCampaignTest</t>
   </si>
 </sst>
 </file>
@@ -228,12 +283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +574,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +768,6 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -834,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAAEFBF-0003-4C1C-934E-6C3A3B4F37D9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="122" workbookViewId="0">
+    <sheetView zoomScale="122" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -898,12 +954,110 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE802EB2-0F5B-44E9-8EF2-58120728F3AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>